--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10085698568135</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H2">
-        <v>1.10085698568135</v>
+        <v>24.550642</v>
       </c>
       <c r="I2">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J2">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>1.002240796362361</v>
+        <v>0.8423543498128889</v>
       </c>
       <c r="R2">
-        <v>1.002240796362361</v>
+        <v>7.581189148316001</v>
       </c>
       <c r="S2">
-        <v>0.004891734175736844</v>
+        <v>0.002344120508892157</v>
       </c>
       <c r="T2">
-        <v>0.004891734175736844</v>
+        <v>0.002344120508892157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.2664405890945</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H3">
-        <v>35.2664405890945</v>
+        <v>24.550642</v>
       </c>
       <c r="I3">
-        <v>0.1567088685725085</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J3">
-        <v>0.1567088685725085</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N3">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q3">
-        <v>32.10722733344306</v>
+        <v>2.008569857493333</v>
       </c>
       <c r="R3">
-        <v>32.10722733344306</v>
+        <v>18.07712871744</v>
       </c>
       <c r="S3">
-        <v>0.1567088685725085</v>
+        <v>0.00558948831633454</v>
       </c>
       <c r="T3">
-        <v>0.1567088685725085</v>
+        <v>0.005589488316334539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.8001592929279</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H4">
-        <v>73.8001592929279</v>
+        <v>24.550642</v>
       </c>
       <c r="I4">
-        <v>0.3279361134858033</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J4">
-        <v>0.3279361134858033</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.910418709603816</v>
+        <v>1.010197333333333</v>
       </c>
       <c r="N4">
-        <v>0.910418709603816</v>
+        <v>3.030592</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="Q4">
-        <v>67.18904579202349</v>
+        <v>8.266997693340445</v>
       </c>
       <c r="R4">
-        <v>67.18904579202349</v>
+        <v>74.402979240064</v>
       </c>
       <c r="S4">
-        <v>0.3279361134858033</v>
+        <v>0.02300556629668748</v>
       </c>
       <c r="T4">
-        <v>0.3279361134858033</v>
+        <v>0.02300556629668748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.2668465961022</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H5">
-        <v>71.2668465961022</v>
+        <v>117.701738</v>
       </c>
       <c r="I5">
-        <v>0.3166791632569592</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J5">
-        <v>0.3166791632569592</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N5">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q5">
-        <v>64.88267051555647</v>
+        <v>4.038451254547112</v>
       </c>
       <c r="R5">
-        <v>64.88267051555647</v>
+        <v>36.34606129092401</v>
       </c>
       <c r="S5">
-        <v>0.3166791632569592</v>
+        <v>0.01123828281061047</v>
       </c>
       <c r="T5">
-        <v>0.3166791632569592</v>
+        <v>0.01123828281061047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.0496337714913</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H6">
-        <v>34.0496337714913</v>
+        <v>117.701738</v>
       </c>
       <c r="I6">
-        <v>0.1513019032969463</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J6">
-        <v>0.1513019032969463</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N6">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q6">
-        <v>30.99942364072362</v>
+        <v>9.629571524906666</v>
       </c>
       <c r="R6">
-        <v>30.99942364072362</v>
+        <v>86.66614372416001</v>
       </c>
       <c r="S6">
-        <v>0.1513019032969463</v>
+        <v>0.02679736396967823</v>
       </c>
       <c r="T6">
-        <v>0.1513019032969463</v>
+        <v>0.02679736396967823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.56038163665519</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H7">
-        <v>9.56038163665519</v>
+        <v>117.701738</v>
       </c>
       <c r="I7">
-        <v>0.04248221721204584</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J7">
-        <v>0.04248221721204584</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.910418709603816</v>
+        <v>1.010197333333333</v>
       </c>
       <c r="N7">
-        <v>0.910418709603816</v>
+        <v>3.030592</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="Q7">
-        <v>8.703950312963636</v>
+        <v>39.63399395209956</v>
       </c>
       <c r="R7">
-        <v>8.703950312963636</v>
+        <v>356.705945568896</v>
       </c>
       <c r="S7">
-        <v>0.04248221721204584</v>
+        <v>0.110294269974461</v>
       </c>
       <c r="T7">
-        <v>0.04248221721204584</v>
+        <v>0.110294269974461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>99.30192733333332</v>
+      </c>
+      <c r="H8">
+        <v>297.905782</v>
+      </c>
+      <c r="I8">
+        <v>0.3754264006264597</v>
+      </c>
+      <c r="J8">
+        <v>0.3754264006264597</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>10.22141218555955</v>
+      </c>
+      <c r="R8">
+        <v>91.99270967003601</v>
+      </c>
+      <c r="S8">
+        <v>0.02844434998089891</v>
+      </c>
+      <c r="T8">
+        <v>0.02844434998089891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>99.30192733333332</v>
+      </c>
+      <c r="H9">
+        <v>297.905782</v>
+      </c>
+      <c r="I9">
+        <v>0.3754264006264597</v>
+      </c>
+      <c r="J9">
+        <v>0.3754264006264597</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>24.37266504469333</v>
+      </c>
+      <c r="R9">
+        <v>219.35398540224</v>
+      </c>
+      <c r="S9">
+        <v>0.06782473907841205</v>
+      </c>
+      <c r="T9">
+        <v>0.06782473907841205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>99.30192733333332</v>
+      </c>
+      <c r="H10">
+        <v>297.905782</v>
+      </c>
+      <c r="I10">
+        <v>0.3754264006264597</v>
+      </c>
+      <c r="J10">
+        <v>0.3754264006264597</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>100.3145421869938</v>
+      </c>
+      <c r="R10">
+        <v>902.830879682944</v>
+      </c>
+      <c r="S10">
+        <v>0.2791573115671487</v>
+      </c>
+      <c r="T10">
+        <v>0.2791573115671487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>71.499621</v>
+      </c>
+      <c r="H11">
+        <v>214.498863</v>
+      </c>
+      <c r="I11">
+        <v>0.2703154518651071</v>
+      </c>
+      <c r="J11">
+        <v>0.2703154518651071</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.308798</v>
+      </c>
+      <c r="O11">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P11">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q11">
+        <v>7.359646655186001</v>
+      </c>
+      <c r="R11">
+        <v>66.23681989667401</v>
+      </c>
+      <c r="S11">
+        <v>0.02048057170530812</v>
+      </c>
+      <c r="T11">
+        <v>0.02048057170530812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>71.499621</v>
+      </c>
+      <c r="H12">
+        <v>214.498863</v>
+      </c>
+      <c r="I12">
+        <v>0.2703154518651071</v>
+      </c>
+      <c r="J12">
+        <v>0.2703154518651071</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.24544</v>
+      </c>
+      <c r="N12">
+        <v>0.73632</v>
+      </c>
+      <c r="O12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q12">
+        <v>17.54886697824</v>
+      </c>
+      <c r="R12">
+        <v>157.93980280416</v>
+      </c>
+      <c r="S12">
+        <v>0.04883533752826272</v>
+      </c>
+      <c r="T12">
+        <v>0.04883533752826272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>71.499621</v>
+      </c>
+      <c r="H13">
+        <v>214.498863</v>
+      </c>
+      <c r="I13">
+        <v>0.2703154518651071</v>
+      </c>
+      <c r="J13">
+        <v>0.2703154518651071</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.030592</v>
+      </c>
+      <c r="O13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q13">
+        <v>72.22872646854401</v>
+      </c>
+      <c r="R13">
+        <v>650.058538216896</v>
+      </c>
+      <c r="S13">
+        <v>0.2009995426315363</v>
+      </c>
+      <c r="T13">
+        <v>0.2009995426315362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.08558533333333</v>
+      </c>
+      <c r="H14">
+        <v>102.256756</v>
+      </c>
+      <c r="I14">
+        <v>0.1288658635192859</v>
+      </c>
+      <c r="J14">
+        <v>0.1288658635192859</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.308798</v>
+      </c>
+      <c r="O14">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P14">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q14">
+        <v>3.508520193254223</v>
+      </c>
+      <c r="R14">
+        <v>31.57668173928801</v>
+      </c>
+      <c r="S14">
+        <v>0.009763580069001094</v>
+      </c>
+      <c r="T14">
+        <v>0.009763580069001094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.08558533333333</v>
+      </c>
+      <c r="H15">
+        <v>102.256756</v>
+      </c>
+      <c r="I15">
+        <v>0.1288658635192859</v>
+      </c>
+      <c r="J15">
+        <v>0.1288658635192859</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.24544</v>
+      </c>
+      <c r="N15">
+        <v>0.73632</v>
+      </c>
+      <c r="O15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q15">
+        <v>8.365966064213334</v>
+      </c>
+      <c r="R15">
+        <v>75.29369457792001</v>
+      </c>
+      <c r="S15">
+        <v>0.02328097745583484</v>
+      </c>
+      <c r="T15">
+        <v>0.02328097745583483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.08558533333333</v>
+      </c>
+      <c r="H16">
+        <v>102.256756</v>
+      </c>
+      <c r="I16">
+        <v>0.1288658635192859</v>
+      </c>
+      <c r="J16">
+        <v>0.1288658635192859</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.030592</v>
+      </c>
+      <c r="O16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q16">
+        <v>34.43316740883911</v>
+      </c>
+      <c r="R16">
+        <v>309.898506679552</v>
+      </c>
+      <c r="S16">
+        <v>0.09582130599444999</v>
+      </c>
+      <c r="T16">
+        <v>0.09582130599444996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H17">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I17">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J17">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.308798</v>
+      </c>
+      <c r="O17">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P17">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q17">
+        <v>1.255756540053555</v>
+      </c>
+      <c r="R17">
+        <v>11.301808860482</v>
+      </c>
+      <c r="S17">
+        <v>0.003494544380721561</v>
+      </c>
+      <c r="T17">
+        <v>0.003494544380721561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H18">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I18">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J18">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.24544</v>
+      </c>
+      <c r="N18">
+        <v>0.73632</v>
+      </c>
+      <c r="O18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q18">
+        <v>2.994315557653333</v>
+      </c>
+      <c r="R18">
+        <v>26.94884001888</v>
+      </c>
+      <c r="S18">
+        <v>0.008332641138909252</v>
+      </c>
+      <c r="T18">
+        <v>0.008332641138909252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H19">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I19">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J19">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.030592</v>
+      </c>
+      <c r="O19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q19">
+        <v>12.32419162116978</v>
+      </c>
+      <c r="R19">
+        <v>110.917724590528</v>
+      </c>
+      <c r="S19">
+        <v>0.03429600659285266</v>
+      </c>
+      <c r="T19">
+        <v>0.03429600659285265</v>
       </c>
     </row>
   </sheetData>
